--- a/my_package/traj_excel_30/tested_robot_traj_6_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_6_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9489610112883385</v>
+        <v>0.9489610112883385</v>
       </c>
       <c r="C1" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.7249361535492151</v>
       </c>
       <c r="E1" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="G1" t="n">
         <v>-0.6218353262550272</v>
@@ -449,19 +449,19 @@
         <v>0.206526356614631</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9506995464141992</v>
+        <v>0.9506995464141992</v>
       </c>
       <c r="C2" t="n">
-        <v>1.394922824513492</v>
+        <v>0.1758735022814049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7248205873556631</v>
+        <v>-0.7248205873556631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9006944602922672</v>
+        <v>0.6701018665026294</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796382838802</v>
+        <v>1.570796382838802</v>
       </c>
       <c r="G2" t="n">
         <v>-0.6200967910929992</v>
@@ -472,19 +472,19 @@
         <v>0.4130527132292621</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.961541846730508</v>
+        <v>0.961541846730508</v>
       </c>
       <c r="C3" t="n">
-        <v>1.394664147431762</v>
+        <v>0.1761321793631349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7240998637083433</v>
+        <v>-0.7240998637083433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9002324054612293</v>
+        <v>0.6705639213336673</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796381591107</v>
+        <v>1.570796381591107</v>
       </c>
       <c r="G3" t="n">
         <v>-0.6092544905511341</v>
@@ -495,19 +495,19 @@
         <v>0.6195790698438931</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9871833712480381</v>
+        <v>0.9871833712480381</v>
       </c>
       <c r="C4" t="n">
-        <v>1.39405238843784</v>
+        <v>0.1767439383570568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7223953865647509</v>
+        <v>-0.7223953865647509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8991396677641671</v>
+        <v>0.6716566590307295</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796378640369</v>
+        <v>1.570796378640369</v>
       </c>
       <c r="G4" t="n">
         <v>-0.5836129655001743</v>
@@ -518,19 +518,19 @@
         <v>0.8261054264585241</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.03009065733366</v>
+        <v>1.03009065733366</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393028700546361</v>
+        <v>0.1777676262485357</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7195431970088403</v>
+        <v>-0.7195431970088403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8973111333900765</v>
+        <v>0.67348519340482</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796373702746</v>
+        <v>1.570796373702746</v>
       </c>
       <c r="G5" t="n">
         <v>-0.5407056785219373</v>
@@ -541,19 +541,19 @@
         <v>1.032631783073155</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.090039474317657</v>
+        <v>1.090039474317657</v>
       </c>
       <c r="C6" t="n">
-        <v>1.391598433483267</v>
+        <v>0.1791978933116294</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7155582003966157</v>
+        <v>-0.7155582003966157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8947563581399578</v>
+        <v>0.6760399686549388</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796366804042</v>
+        <v>1.570796366804042</v>
       </c>
       <c r="G6" t="n">
         <v>-0.4807568602908032</v>
@@ -564,19 +564,19 @@
         <v>1.239158139687786</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.164652977101047</v>
+        <v>1.164652977101047</v>
       </c>
       <c r="C7" t="n">
-        <v>1.389818294343547</v>
+        <v>0.1809780324513496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7105983935017208</v>
+        <v>-0.7105983935017208</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8915766335044149</v>
+        <v>0.6792196932904817</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796358217776</v>
+        <v>1.570796358217776</v>
       </c>
       <c r="G7" t="n">
         <v>-0.4061433559552025</v>
@@ -587,19 +587,19 @@
         <v>1.445684496302417</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.249939859762893</v>
+        <v>1.249939859762893</v>
       </c>
       <c r="C8" t="n">
-        <v>1.387783508248973</v>
+        <v>0.1830128185459232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7049290916610294</v>
+        <v>-0.7049290916610294</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8879420527412545</v>
+        <v>0.6828542740536421</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796348403254</v>
+        <v>1.570796348403254</v>
       </c>
       <c r="G8" t="n">
         <v>-0.3208564715191031</v>
@@ -610,19 +610,19 @@
         <v>1.652210852917048</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.340832509167626</v>
+        <v>1.340832509167626</v>
       </c>
       <c r="C9" t="n">
-        <v>1.385614979005842</v>
+        <v>0.1851813477890544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6988871559202345</v>
+        <v>-0.6988871559202345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8840685769530848</v>
+        <v>0.6867277498418117</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.57079633794364</v>
+        <v>1.57079633794364</v>
       </c>
       <c r="G9" t="n">
         <v>-0.2299638202234981</v>
@@ -633,19 +633,19 @@
         <v>1.858737209531679</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.431725158572359</v>
+        <v>1.431725158572359</v>
       </c>
       <c r="C10" t="n">
-        <v>1.383446449762711</v>
+        <v>0.1873498770321855</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6928452201794398</v>
+        <v>-0.6928452201794398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8801951011649152</v>
+        <v>0.6906012256299814</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796327484026</v>
+        <v>1.570796327484026</v>
       </c>
       <c r="G10" t="n">
         <v>-0.1390711689278932</v>
@@ -656,19 +656,19 @@
         <v>2.06526356614631</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.517012041234205</v>
+        <v>1.517012041234205</v>
       </c>
       <c r="C11" t="n">
-        <v>1.381411663668138</v>
+        <v>0.1893846631267591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6871759183387484</v>
+        <v>-0.6871759183387484</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8765605204017548</v>
+        <v>0.6942358063931418</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796317669504</v>
+        <v>1.570796317669504</v>
       </c>
       <c r="G11" t="n">
         <v>-0.05378428449179418</v>
@@ -679,19 +679,19 @@
         <v>2.271789922760941</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.591625544017594</v>
+        <v>1.591625544017594</v>
       </c>
       <c r="C12" t="n">
-        <v>1.379631524528417</v>
+        <v>0.1911648022664793</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6822161114438535</v>
+        <v>-0.6822161114438535</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8733807957662119</v>
+        <v>0.6974155310286847</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796309083238</v>
+        <v>1.570796309083238</v>
       </c>
       <c r="G12" t="n">
         <v>0.0208292198438067</v>
@@ -702,19 +702,19 @@
         <v>2.478316279375572</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.651574361001592</v>
+        <v>1.651574361001592</v>
       </c>
       <c r="C13" t="n">
-        <v>1.378201257465324</v>
+        <v>0.192595069329573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6782311148316289</v>
+        <v>-0.6782311148316289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8708260205160931</v>
+        <v>0.6999703062788034</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796302184534</v>
+        <v>1.570796302184534</v>
       </c>
       <c r="G13" t="n">
         <v>0.08077803807494088</v>
@@ -725,19 +725,19 @@
         <v>2.684842635990203</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.694481647087213</v>
+        <v>1.694481647087213</v>
       </c>
       <c r="C14" t="n">
-        <v>1.377177569573845</v>
+        <v>0.193618757221052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6753789252757183</v>
+        <v>-0.6753789252757183</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8689974861420026</v>
+        <v>0.701798840652894</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796297246911</v>
+        <v>1.570796297246911</v>
       </c>
       <c r="G14" t="n">
         <v>0.1236853250531775</v>
@@ -748,19 +748,19 @@
         <v>2.891368992604835</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.720123171604743</v>
+        <v>1.720123171604743</v>
       </c>
       <c r="C15" t="n">
-        <v>1.376565810579923</v>
+        <v>0.1942305162149738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6736744481321258</v>
+        <v>-0.6736744481321258</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8679047484449404</v>
+        <v>0.7028915783499562</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796294296173</v>
+        <v>1.570796294296173</v>
       </c>
       <c r="G15" t="n">
         <v>0.1493268501041367</v>
@@ -771,19 +771,19 @@
         <v>3.097895349219466</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.730965471921052</v>
+        <v>1.730965471921052</v>
       </c>
       <c r="C16" t="n">
-        <v>1.376307133498193</v>
+        <v>0.1944891932967038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6729537244848061</v>
+        <v>-0.6729537244848061</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8674426936139025</v>
+        <v>0.7033536331809941</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796293048478</v>
+        <v>1.570796293048478</v>
       </c>
       <c r="G16" t="n">
         <v>0.1601691506460023</v>
@@ -794,19 +794,19 @@
         <v>3.304421705834097</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="C17" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="D17" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.672838158291254</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="G17" t="n">
         <v>0.1619076858080303</v>
